--- a/biology/Botanique/Couepia/Couepia.xlsx
+++ b/biology/Botanique/Couepia/Couepia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couepia est un genre de plantes à fleurs de la famille des Chrysobalanaceae. Ce sont des arbres d'origine néotropicale, comptant environ 70 espèces, et dont l'espèce type est Couepia guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « COUEPIA. (Tabula 207.)
 CAL. Perianthium monophyllum ; faux tumida ; limbus quinque-partitus, laciniis inæqualibus, ſubrotundis. 
 COR. ...
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (13 janvier 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (13 janvier 2022) :
 Couepia belemii Prance
 Couepia bernardiae Prance
 Couepia bernardii Prance
@@ -618,7 +634,7 @@
 Couepia ulei Pilg.
 Couepia venosa Prance
 Couepia williamsii J.F.Macbr.
-Selon GBIF       (13 janvier 2022)[5] :
+Selon GBIF       (13 janvier 2022) :
 Couepia amaraliae Prance
 Couepia belemii Prance
 Couepia bernardii Prance
@@ -690,7 +706,7 @@
 Couepia ulei Pilg.
 Couepia venosa Prance
 Couepia williamsii J.F.Macbr.
-Selon World Checklist of Selected Plant Families (WCSP)  (14 juin 2012)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 juin 2012) :
 Couepia amaraliae Prance (1989)
 Couepia belemii Prance (1972)
 Couepia bernardii Prance (1981)
